--- a/汽柴煤油2.0/eta/中国柴油出口计划量_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/中国柴油出口计划量_月度数据.xlsx
@@ -523,7 +523,7 @@
         <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="8">
